--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1593.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1593.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.33791810979173</v>
+        <v>0.4705779254436493</v>
       </c>
       <c r="B1">
-        <v>3.340310331983022</v>
+        <v>1.342543244361877</v>
       </c>
       <c r="C1">
-        <v>5.353183636543082</v>
+        <v>6.550336837768555</v>
       </c>
       <c r="D1">
-        <v>1.652891157741205</v>
+        <v>2.002867460250854</v>
       </c>
       <c r="E1">
-        <v>0.9074406791373951</v>
+        <v>1.745929837226868</v>
       </c>
     </row>
   </sheetData>
